--- a/TestData/LV_TMTT0041159_VerifiyTheFunctionalityOfVerballyEngagedCFEngagement.xlsx
+++ b/TestData/LV_TMTT0041159_VerifiyTheFunctionalityOfVerballyEngagedCFEngagement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F0DBEC-0552-41CE-9A35-4FCEAAF34FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0CEE9F-A7CC-4450-9D16-D015D645CBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="548" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="134">
   <si>
     <t>James Craven</t>
   </si>
@@ -395,9 +395,6 @@
     <t>Compliance Eng Comments</t>
   </si>
   <si>
-    <t>Vijay Kumar</t>
-  </si>
-  <si>
     <t>Opportunity cannot be updated after engagement creation</t>
   </si>
   <si>
@@ -428,10 +425,31 @@
     <t>*Shared Services Expense*Expense Cap*Legal Cap*Indemnification Language*Retainer*Progress/Monthly Fee*Contingent Fee*Confidentiality Agreement*Fairness Opinion Component*Date Engaged</t>
   </si>
   <si>
-    <t>Brian Miller</t>
-  </si>
-  <si>
     <t>Sonika Goyal</t>
+  </si>
+  <si>
+    <t>Info--&gt;Administration: Location where Benefit is to be Provided is required.</t>
+  </si>
+  <si>
+    <t>Benefit is likely &lt;25% outside the US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location where Benefit </t>
+  </si>
+  <si>
+    <t>Christopher Wout</t>
+  </si>
+  <si>
+    <t>CF M&amp;A CAO</t>
+  </si>
+  <si>
+    <t>Justin Abelow</t>
+  </si>
+  <si>
+    <t>FS Admin_L</t>
+  </si>
+  <si>
+    <t>Michael Birney</t>
   </si>
 </sst>
 </file>
@@ -775,19 +793,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -795,7 +814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -803,15 +822,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -819,12 +841,20 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>102</v>
       </c>
       <c r="B5" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -918,7 +948,7 @@
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,7 +956,7 @@
         <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -934,7 +964,7 @@
         <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -942,7 +972,7 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1013,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C44B9E-4C84-4780-B625-147466BEF9C9}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1059,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1104,7 +1134,7 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1252,7 @@
         <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
@@ -1317,13 +1347,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2CDCD2-7F5E-40FD-BAB3-4BCEC31CD21E}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1361,7 +1391,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -1400,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2386AE-B180-4489-BA71-14068DFEFD5A}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1446,9 @@
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1431,12 +1463,20 @@
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1535,13 +1575,13 @@
         <v>85</v>
       </c>
       <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="E2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
